--- a/data/long_dif/P30-Urba-long_dif.xlsx
+++ b/data/long_dif/P30-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>23,77%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>22,35%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23,78%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25,72%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18,31%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23,02%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26,09%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>25,65%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,96; 25,41</t>
+          <t>17,65; 27,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,39; 28,46</t>
+          <t>19,54; 28,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,25; 18,66</t>
+          <t>22,77; 40,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,72; 25,66</t>
+          <t>20,12; 31,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,43; 20,68</t>
+          <t>12,33; 18,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,99; 25,92</t>
+          <t>19,15; 25,62</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19,82; 28,39</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21,34; 30,59</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15,58; 21,43</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20,31; 25,89</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22,2; 32,64</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22,33; 29,05</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>51,58%</t>
+          <t>50,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>55,1%</t>
+          <t>54,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>59,95%</t>
+          <t>49,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>57,65%</t>
+          <t>45,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>56,0%</t>
+          <t>58,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>56,44%</t>
+          <t>57,53%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>51,36%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>53,05%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>55,11%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>56,28%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>50,46%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>49,36%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,97; 57,7</t>
+          <t>44,66; 57,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,88; 60,69</t>
+          <t>49,77; 60,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,4; 64,77</t>
+          <t>40,65; 55,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,65; 62,13</t>
+          <t>39,15; 51,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,15; 60,03</t>
+          <t>53,86; 63,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,99; 59,87</t>
+          <t>53,49; 61,25</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>45,82; 56,28</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>47,45; 58,26</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>50,96; 58,4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>53,16; 59,9</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>45,61; 54,39</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>45,23; 53,38</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>27,33%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>21,91%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>20,12%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24,86%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>21,23%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>26,57%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>20,7%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>23,45%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>25,0%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,34; 34,5</t>
+          <t>22,32; 36,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,28; 25,1</t>
+          <t>17,53; 25,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,52; 28,63</t>
+          <t>16,89; 27,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,94; 23,58</t>
+          <t>23,55; 35,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,8; 30,16</t>
+          <t>22,26; 30,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,1; 23,22</t>
+          <t>16,93; 23,39</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>20,72; 29,27</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17,62; 25,63</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23,18; 30,59</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18,32; 23,55</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>20,21; 26,86</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>21,62; 29,36</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,16; 29,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,56; 27,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,01; 22,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,53; 27,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,04; 24,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,5; 25,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>48,06%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>54,13%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>54,27%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>56,65%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>51,19%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>55,41%</t>
+          <t>23,01%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23,05%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30,82%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20,73%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22,43%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>22,6%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24,29%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,29; 55,53</t>
+          <t>18,62; 29,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>48,63; 59,39</t>
+          <t>17,44; 27,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>48,94; 60,05</t>
+          <t>17,07; 27,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>51,53; 61,27</t>
+          <t>11,81; 26,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,08; 56,15</t>
+          <t>13,74; 22,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>51,49; 58,94</t>
+          <t>19,41; 26,87</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18,75; 27,99</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>22,03; 41,21</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17,38; 24,83</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19,39; 25,6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>19,54; 26,49</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18,5; 30,54</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>54,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27,93%</t>
+          <t>53,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>47,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>28,25%</t>
+          <t>55,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>56,32%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>51,84%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>46,48%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>51,58%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>55,18%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>52,44%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>46,96%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,62; 34,99</t>
+          <t>41,59; 54,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,48; 29,41</t>
+          <t>48,64; 59,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,11; 33,29</t>
+          <t>46,4; 59,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,62; 24,19</t>
+          <t>32,97; 58,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,25; 32,12</t>
+          <t>50,09; 61,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,07; 25,32</t>
+          <t>51,46; 60,97</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>46,57; 57,65</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>35,75; 56,67</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>47,38; 55,63</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>51,39; 59,06</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>47,54; 56,92</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>37,25; 54,41</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>20,66%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>25,11%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>22,7%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>27,69%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>22,39%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>24,96%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>28,76%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,93; 43,98</t>
+          <t>23,14; 34,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,88; 30,83</t>
+          <t>19,55; 28,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,52; 25,47</t>
+          <t>19,61; 34,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,1; 32,67</t>
+          <t>23,63; 53,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,43; 31,7</t>
+          <t>22,27; 32,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,2; 28,47</t>
+          <t>16,7; 24,63</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20,67; 30,94</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14,94; 33,1</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>23,63; 31,45</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19,28; 25,69</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>20,95; 29,7</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>21,91; 42,21</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>54,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>52,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>59,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>58,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>56,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>55,17%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>39,65; 65,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>41,68; 62,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>49,02; 68,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>48,58; 66,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>47,77; 64,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>48,17; 61,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>23,9%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>21,39%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>21,61%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>22,78%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>20,5%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,6; 28,41</t>
+          <t>17,32; 48,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,96; 37,33</t>
+          <t>14,09; 31,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,27; 33,97</t>
+          <t>10,17; 33,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,68; 25,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,28; 27,9</t>
+          <t>9,16; 23,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,81; 28,63</t>
+          <t>17,12; 32,19</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14,13; 31,37</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>15,44; 33,74</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>17,27; 28,74</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>14,35; 28,71</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>54,01%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>51,66%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>59,58%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>57,94%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>55,41%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>56,78%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>54,75%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>45,1%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>19,57; 26,6</t>
+          <t>37,81; 65,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>19,63; 26,08</t>
+          <t>42,2; 63,11</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>14,07; 18,86</t>
+          <t>20,72; 49,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>20,52; 25,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>17,32; 21,56</t>
+          <t>48,88; 68,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>20,97; 24,92</t>
+          <t>48,51; 66,4</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>44,43; 65,68</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>47,1; 64,05</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>48,32; 61,37</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>35,2; 54,5</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>50,49%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>54,35%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>57,69%</t>
+          <t>45,21%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>57,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>54,2%</t>
+          <t>25,03%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>55,89%</t>
+          <t>18,16%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>23,2%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>21,61%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>22,46%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>34,4%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>46,24; 54,92</t>
+          <t>10,12; 28,55</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>50,75; 58,1</t>
+          <t>17,43; 36,65</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>54,31; 61,08</t>
+          <t>28,39; 65,37</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>54,5; 60,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>51,46; 56,87</t>
+          <t>16,57; 34,69</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>53,4; 58,03</t>
+          <t>12,33; 26,93</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>14,79; 33,01</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>15,73; 28,57</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>17,56; 29,26</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>24,69; 47,54</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +2228,630 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>23,09; 30,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>20,19; 25,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>23,11; 29,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>17,37; 22,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>24,05; 28,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>19,6; 23,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>23,27%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>22,74%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>24,93%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>23,88%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>16,22%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>22,78%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>23,22%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>26,79%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>19,65%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>22,76%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>24,06%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>25,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>19,77; 27,82</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>19,87; 25,87</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>21,05; 31,38</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>19,88; 29,13</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>13,91; 18,74</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>20,19; 25,0</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>20,44; 26,54</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>22,47; 30,61</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>17,55; 21,77</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>20,77; 24,83</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>21,46; 27,43</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>22,35; 28,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>50,07%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>54,13%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>49,15%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>45,95%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>57,61%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>57,12%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>52,01%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>51,67%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>53,94%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>55,67%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>50,61%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>48,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>45,55; 54,13</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>50,54; 57,98</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>43,56; 53,65</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>39,93; 51,49</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>54,11; 60,67</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>54,23; 59,92</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>48,5; 55,52</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>46,74; 56,24</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>51,04; 56,68</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>53,35; 57,76</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>47,51; 53,73</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>44,93; 52,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>26,66%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>23,13%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>25,92%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>30,17%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>26,17%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>20,1%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>24,77%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>21,54%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>26,41%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>21,57%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>25,33%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>25,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>22,94; 31,44</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>20,39; 26,0</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>22,02; 30,77</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>24,99; 36,73</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>23,15; 29,39</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>17,59; 22,57</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>21,69; 27,98</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>17,79; 25,31</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>24,05; 28,9</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>19,92; 23,6</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>22,68; 28,43</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>22,74; 29,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P30-Urba-long_dif.xlsx
+++ b/data/long_dif/P30-Urba-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1570,7 +1570,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1684,7 +1684,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1934,7 +1934,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2066,7 +2066,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
